--- a/server/schema.xlsx
+++ b/server/schema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti\php project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti\php project\Cafeteria-System-Using-PHP\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39071F5F-8A02-4C04-9950-24237C342093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20570D69-7F1F-4FB4-ADD4-BC2515690B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{208EF75C-ABC7-459C-B052-EB909E618043}"/>
   </bookViews>
@@ -34,19 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>Orders</t>
-  </si>
-  <si>
-    <t>Categories</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -75,9 +63,6 @@
     <t>createdAt</t>
   </si>
   <si>
-    <t>Cart</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -87,18 +72,12 @@
     <t>notes</t>
   </si>
   <si>
-    <t>order_product</t>
-  </si>
-  <si>
     <t>order_id</t>
   </si>
   <si>
     <t>product_ID</t>
   </si>
   <si>
-    <t>Rooms</t>
-  </si>
-  <si>
     <t>room_ID</t>
   </si>
   <si>
@@ -111,13 +90,37 @@
     <t>category_ID</t>
   </si>
   <si>
-    <t>cart_product</t>
-  </si>
-  <si>
     <t>cart_ID</t>
   </si>
   <si>
     <t>total-price</t>
+  </si>
+  <si>
+    <t>Categories (abusaif)</t>
+  </si>
+  <si>
+    <t>Cart (Essam)</t>
+  </si>
+  <si>
+    <t>cart_product (Essam)</t>
+  </si>
+  <si>
+    <t>Orders (Arwa)</t>
+  </si>
+  <si>
+    <t>order_product (Arwa)</t>
+  </si>
+  <si>
+    <t>Users (Nada, Zaki)</t>
+  </si>
+  <si>
+    <t>Products (Abusaif)</t>
+  </si>
+  <si>
+    <t>Rooms (Zaki)</t>
+  </si>
+  <si>
+    <t>add, update, delete, change password, forget password, get, change Image, login</t>
   </si>
 </sst>
 </file>
@@ -493,13 +496,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA568BB-F1EC-4523-A975-939B1AF7E15E}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
@@ -507,36 +510,36 @@
     <col min="6" max="6" width="25.33203125" customWidth="1"/>
     <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -574,28 +577,28 @@
     </row>
     <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -634,31 +637,31 @@
     </row>
     <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -696,10 +699,10 @@
     </row>
     <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -744,13 +747,13 @@
     </row>
     <row r="9" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -794,19 +797,19 @@
     </row>
     <row r="11" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -848,10 +851,10 @@
     </row>
     <row r="13" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -896,16 +899,16 @@
     </row>
     <row r="15" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -971,7 +974,9 @@
     <row r="18" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
